--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726996.2880944916</v>
+        <v>-729531.2589703468</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>60.31382691113713</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>190.1921129400383</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5.364291051780883</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>71.67037196991757</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>28.93382893561936</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>142.0975176632392</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>71.67037196991681</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>249.6801140405074</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>288.1408797919112</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>23.79925355567458</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>38.21239261106974</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>161.059121501438</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>173.2052365248857</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>80.11763046889845</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>27.31547498186517</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>130.5513683573795</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>100.2041656279927</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272922</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>65.25773758188321</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>146.523573900449</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,16 +2530,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>285.5970594671156</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>45.89043756183533</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>106.5290632934502</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
         <v>124.3308255261727</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652609</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261728</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3910,7 +3910,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1506.396382525582</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C2" t="n">
-        <v>1137.43386558517</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
-        <v>779.1681669784198</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>779.1681669784198</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3154.392095650268</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3154.392095650268</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2823.329208306698</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y2" t="n">
-        <v>1506.396382525582</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>538.8965081646988</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C4" t="n">
-        <v>369.960325236792</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D4" t="n">
-        <v>219.8436858244562</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E4" t="n">
-        <v>71.93059224206311</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F4" t="n">
-        <v>71.93059224206311</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G4" t="n">
-        <v>71.93059224206311</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>1169.327103036486</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X4" t="n">
-        <v>941.3375521384687</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y4" t="n">
-        <v>720.5449729949386</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1238.038871968308</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C5" t="n">
-        <v>869.0763550278964</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="D5" t="n">
-        <v>510.8106564211459</v>
+        <v>1006.819119944519</v>
       </c>
       <c r="E5" t="n">
-        <v>510.8106564211459</v>
+        <v>621.030867346275</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>210.0449625566675</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883006</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269321</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008242</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.63871203243</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548191</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1453.325797263567</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1163.908627226606</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>935.919076328589</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.1264971850588</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4799,10 +4799,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810557</v>
@@ -4820,10 +4820,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796418</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y8" t="n">
-        <v>2277.953133796418</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548192</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1798.865714471202</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1798.865714471202</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1509.762847596846</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1255.078359390959</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>1255.078359390959</v>
       </c>
       <c r="X10" t="n">
-        <v>935.9190763285891</v>
+        <v>1027.088808492942</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.126497185059</v>
+        <v>806.2962293494114</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5030,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2272.00829921169</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>2052.406834234631</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>2052.406834234631</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1797.722346028744</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1508.305175991783</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,19 +5361,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.5467179762953</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C16" t="n">
-        <v>815.6105350483884</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D16" t="n">
-        <v>665.4938956360527</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>517.5808020536596</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>370.6908545557492</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>203.4947552706291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>1166.195182806535</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,40 +5525,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,16 +5586,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5604,13 +5604,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459609</v>
+        <v>808.8888553856823</v>
       </c>
       <c r="C19" t="n">
-        <v>599.601906018054</v>
+        <v>639.9526724577754</v>
       </c>
       <c r="D19" t="n">
-        <v>449.4852666057183</v>
+        <v>489.8360330454396</v>
       </c>
       <c r="E19" t="n">
-        <v>449.4852666057183</v>
+        <v>341.9229394630465</v>
       </c>
       <c r="F19" t="n">
-        <v>449.4852666057183</v>
+        <v>195.0329919651362</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>195.0329919651362</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.06254548757</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510511</v>
+        <v>2044.506784258102</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854709</v>
+        <v>1755.4315576023</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854709</v>
+        <v>1500.747069396413</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817748</v>
+        <v>1211.329899359452</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919731</v>
+        <v>1211.329899359452</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537762006</v>
+        <v>990.537320215922</v>
       </c>
     </row>
     <row r="20">
@@ -5729,43 +5729,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192507</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,16 +5823,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
         <v>776.1751066403293</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>1022.872235754091</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>853.9360528261844</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>703.8194134138487</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>555.9063198314556</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>409.0163723335452</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>241.8202730484251</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797747</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2049.058935487114</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1759.983708831312</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1505.299220625425</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1425.313279727861</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>1204.520700584331</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,28 +5975,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6005,7 +6005,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6014,13 +6014,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5348780504994</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578601</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>1164.975922024269</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>944.1833428807391</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>835.5837926935562</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>666.6476097656493</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>516.5309703533136</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>368.6178767709205</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6458,10 +6458,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075794</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6601,16 +6601,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6680,46 +6680,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438171</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6880,22 +6880,22 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
         <v>974.1018203925706</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
@@ -6947,40 +6947,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7072,28 +7072,28 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7196,25 +7196,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,28 +7309,28 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
@@ -7388,31 +7388,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7430,28 +7430,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979287</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7664,10 +7664,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7737,7 +7737,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -7822,10 +7822,10 @@
         <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>143.604143228483</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>196.0458257160153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22714,16 +22714,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>54.37190332970152</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>24.68204843992052</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,19 +22753,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>169.9391403962219</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>7.82104947675893</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892428</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>68.4978425493139</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229358</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>112.9792378643587</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.9727699348893</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.09054721823122</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>75.03697526434065</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>70.88187642683923</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.5874149221285165</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>179.8192178272018</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>38.891984729481</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-1.227906792921181e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1182561.448850756</v>
+        <v>1182561.448850755</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1182561.448850756</v>
+        <v>1182561.448850755</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1182561.448850756</v>
+        <v>1182561.448850755</v>
       </c>
     </row>
     <row r="8">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254693</v>
+        <v>207271.1201254694</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="D2" t="n">
         <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
+        <v>242143.9799070018</v>
+      </c>
+      <c r="F2" t="n">
+        <v>242143.9799070018</v>
+      </c>
+      <c r="G2" t="n">
+        <v>242143.9799070017</v>
+      </c>
+      <c r="H2" t="n">
         <v>242143.9799070019</v>
-      </c>
-      <c r="F2" t="n">
-        <v>242143.9799070019</v>
-      </c>
-      <c r="G2" t="n">
-        <v>242143.9799070018</v>
-      </c>
-      <c r="H2" t="n">
-        <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
+        <v>242143.9799070019</v>
+      </c>
+      <c r="K2" t="n">
         <v>242143.9799070018</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>242143.9799070017</v>
       </c>
-      <c r="L2" t="n">
-        <v>242143.9799070018</v>
-      </c>
       <c r="M2" t="n">
+        <v>246312.5309592847</v>
+      </c>
+      <c r="N2" t="n">
         <v>246312.5309592848</v>
-      </c>
-      <c r="N2" t="n">
-        <v>246312.5309592847</v>
       </c>
       <c r="O2" t="n">
         <v>246312.530959285</v>
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104482.7459291437</v>
+        <v>104482.7459291436</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17905.39262593851</v>
+        <v>17905.3926259387</v>
       </c>
       <c r="C4" t="n">
+        <v>92183.89891818176</v>
+      </c>
+      <c r="D4" t="n">
         <v>92183.89891818175</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26433,28 +26433,28 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12996.86414683042</v>
+      </c>
+      <c r="J4" t="n">
         <v>12996.86414683039</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12996.8641468304</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
+        <v>20987.7234099239</v>
+      </c>
+      <c r="N4" t="n">
         <v>20987.72340992388</v>
       </c>
-      <c r="N4" t="n">
-        <v>20987.72340992389</v>
-      </c>
       <c r="O4" t="n">
-        <v>20987.72340992392</v>
+        <v>20987.72340992388</v>
       </c>
       <c r="P4" t="n">
         <v>20987.7234099239</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1247312.958789455</v>
+        <v>-1247638.303879737</v>
       </c>
       <c r="C6" t="n">
-        <v>46194.69147970999</v>
+        <v>46194.69147971044</v>
       </c>
       <c r="D6" t="n">
-        <v>46194.69147970999</v>
+        <v>46194.69147971</v>
       </c>
       <c r="E6" t="n">
-        <v>-197387.875871091</v>
+        <v>-197422.6137965268</v>
       </c>
       <c r="F6" t="n">
-        <v>128024.5859362643</v>
+        <v>127989.8480108286</v>
       </c>
       <c r="G6" t="n">
-        <v>128024.5859362642</v>
+        <v>127989.8480108285</v>
       </c>
       <c r="H6" t="n">
-        <v>128024.5859362643</v>
+        <v>127989.8480108285</v>
       </c>
       <c r="I6" t="n">
-        <v>128024.5859362643</v>
+        <v>127989.8480108284</v>
       </c>
       <c r="J6" t="n">
-        <v>-89506.61646101318</v>
+        <v>-89541.3543864488</v>
       </c>
       <c r="K6" t="n">
-        <v>128024.5859362642</v>
+        <v>127989.8480108286</v>
       </c>
       <c r="L6" t="n">
-        <v>128024.5859362642</v>
+        <v>127989.8480108285</v>
       </c>
       <c r="M6" t="n">
-        <v>17677.9457663019</v>
+        <v>17677.9457663018</v>
       </c>
       <c r="N6" t="n">
         <v>122160.6916954455</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022926</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>85.01882053283836</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>116.272697809391</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>377.9422168060921</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>268.8242079902142</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>118.0986533615251</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>2.457529283320582</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94.59296187156934</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>362.438685100379</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>151.5566327203722</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>125.463876835153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q15" t="n">
-        <v>340.7767527663067</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32786,16 +32786,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33026,10 +33026,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>592.1874941409601</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>624.1318526922785</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33178,13 +33178,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
         <v>867.8464071162563</v>
@@ -33260,7 +33260,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>615.1181176946642</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33494,19 +33494,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236508</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33968,34 +33968,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043726</v>
@@ -34205,10 +34205,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34384,13 +34384,13 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34457,10 +34457,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060476</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36452,13 +36452,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>453.6331143610859</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>481.5356082478341</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,13 +36826,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
         <v>632.079992146269</v>
@@ -36908,7 +36908,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>483.7764056113309</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>101.8925903961643</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
@@ -37163,13 +37163,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,10 +38105,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
